--- a/test/assets/wsj.xlsx
+++ b/test/assets/wsj.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4181,6 +4181,466 @@
         <v>4257416449</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oct 06, 2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3342</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F41" t="n">
+        <v>175</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>101</v>
+      </c>
+      <c r="I41" t="n">
+        <v>294788518</v>
+      </c>
+      <c r="J41" t="n">
+        <v>478710051</v>
+      </c>
+      <c r="K41" t="n">
+        <v>789929201</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3890</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1485040244</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2080024643</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>3665857390</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1696</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2811</v>
+      </c>
+      <c r="U41" t="n">
+        <v>306</v>
+      </c>
+      <c r="V41" t="n">
+        <v>42</v>
+      </c>
+      <c r="W41" t="n">
+        <v>216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>21021</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1359398333</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2842883736</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>4257416449</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oct 06, 2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3342</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F42" t="n">
+        <v>175</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+      <c r="H42" t="n">
+        <v>101</v>
+      </c>
+      <c r="I42" t="n">
+        <v>294788518</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478710051</v>
+      </c>
+      <c r="K42" t="n">
+        <v>789929201</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3890</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1485040244</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2080024643</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3665857390</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1696</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2811</v>
+      </c>
+      <c r="U42" t="n">
+        <v>306</v>
+      </c>
+      <c r="V42" t="n">
+        <v>42</v>
+      </c>
+      <c r="W42" t="n">
+        <v>216</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>21021</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1359398333</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2842883736</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>4257416449</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oct 06, 2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3342</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F43" t="n">
+        <v>175</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18</v>
+      </c>
+      <c r="H43" t="n">
+        <v>101</v>
+      </c>
+      <c r="I43" t="n">
+        <v>294788518</v>
+      </c>
+      <c r="J43" t="n">
+        <v>478710051</v>
+      </c>
+      <c r="K43" t="n">
+        <v>789929201</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3890</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1485040244</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2080024643</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3665857390</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1696</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2811</v>
+      </c>
+      <c r="U43" t="n">
+        <v>306</v>
+      </c>
+      <c r="V43" t="n">
+        <v>42</v>
+      </c>
+      <c r="W43" t="n">
+        <v>216</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>21021</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1359398333</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2842883736</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>4257416449</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oct 06, 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3342</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F44" t="n">
+        <v>175</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18</v>
+      </c>
+      <c r="H44" t="n">
+        <v>101</v>
+      </c>
+      <c r="I44" t="n">
+        <v>294788518</v>
+      </c>
+      <c r="J44" t="n">
+        <v>478710051</v>
+      </c>
+      <c r="K44" t="n">
+        <v>789929201</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3890</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1485040244</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2080024643</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>3665857390</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1696</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2811</v>
+      </c>
+      <c r="U44" t="n">
+        <v>306</v>
+      </c>
+      <c r="V44" t="n">
+        <v>42</v>
+      </c>
+      <c r="W44" t="n">
+        <v>216</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>21021</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1359398333</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2842883736</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>4257416449</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oct 06, 2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3342</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F45" t="n">
+        <v>175</v>
+      </c>
+      <c r="G45" t="n">
+        <v>18</v>
+      </c>
+      <c r="H45" t="n">
+        <v>101</v>
+      </c>
+      <c r="I45" t="n">
+        <v>294788518</v>
+      </c>
+      <c r="J45" t="n">
+        <v>478710051</v>
+      </c>
+      <c r="K45" t="n">
+        <v>789929201</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3890</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1485040244</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2080024643</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>3665857390</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1696</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2811</v>
+      </c>
+      <c r="U45" t="n">
+        <v>306</v>
+      </c>
+      <c r="V45" t="n">
+        <v>42</v>
+      </c>
+      <c r="W45" t="n">
+        <v>216</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>21021</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1359398333</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2842883736</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>4257416449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
